--- a/Wireless transmission/data/point.xlsx
+++ b/Wireless transmission/data/point.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -406,7 +405,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,7 +657,7 @@
         <v>-623</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -681,7 +680,7 @@
         <v>-32</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -750,7 +749,7 @@
         <v>562</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -819,7 +818,7 @@
         <v>-341</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -865,7 +864,7 @@
         <v>629</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -888,7 +887,7 @@
         <v>-682</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
